--- a/data/howard-daily-crime-bulletin.xlsx
+++ b/data/howard-daily-crime-bulletin.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="182">
   <si>
     <t>publish_date</t>
   </si>
@@ -442,19 +442,124 @@
     <t xml:space="preserve">Unknown suspect(s) attempted to break into a detached shed on the property. </t>
   </si>
   <si>
+    <t>generator</t>
+  </si>
+  <si>
+    <t>multiple vehicles: catalytic converters</t>
+  </si>
+  <si>
     <t>2001 green Toyota Avalon, tags MD/2DD2814</t>
   </si>
   <si>
+    <t>2020 black Honda Accord, tags MD/6EP3396</t>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Black Maserati, tags MD/3ES1586</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown suspect(s) entered the business by breaking the front glass door and stole scratch-off lottery tickets. </t>
+  </si>
+  <si>
+    <t>catalytic converter</t>
+  </si>
+  <si>
+    <t>2020 Dodge Challenger, tags MD/3EL9942</t>
+  </si>
+  <si>
+    <t>Unknown suspect(s) entered several sheds and a trailer on the property. Nothing was reported stolen.</t>
+  </si>
+  <si>
+    <t>various items</t>
+  </si>
+  <si>
+    <t>Toyota Avalon, tags MD/5CS3930</t>
+  </si>
+  <si>
     <t xml:space="preserve">Police responded for a report of a vehicle in a parking lot with bullet holes in it and discovered one occupant in the vehicle who was uninjured. They also located in the vehicle what was determined to be an illegally owned – and loaded – firearm made from parts. The occupant was arrested. It remains under investigation in what jurisdiction the vehicle was shot. </t>
   </si>
   <si>
+    <t>two vehicles: unclear what</t>
+  </si>
+  <si>
     <t>A juvenile male victim reported that he had been robbed of cash and threatened with a gun. The victim was not injured. Police responded, located the suspect, and arrested him nearby. Officers recovered from the suspect an illegally owned loaded handgun and amounts of suspected cocaine, ecstasy, marijuana and drug paraphernalia indicative of distribution.</t>
   </si>
   <si>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>two vehicles: catalytic converters</t>
+  </si>
+  <si>
+    <t>Gray Hyundai Elantra</t>
+  </si>
+  <si>
+    <t>2019 white Audi Q5</t>
+  </si>
+  <si>
+    <t>Nissan Maxima</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A resident reported that his second-floor window had been shot. No one was injured. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A juvenile male victim reported that he was approached by two male suspects who assaulted him and stole his cell phone before fleeing. No one was injured. </t>
+  </si>
+  <si>
+    <t>was stolen</t>
+  </si>
+  <si>
+    <t>Black Toyota Corolla</t>
+  </si>
+  <si>
+    <t>Two adult female victims reported that a male suspect approached them outside their apartment, displayed a knife, and entered their apartment. The suspect stole a purse and a cellphone from the apartment before fleeing. No one was injured.</t>
+  </si>
+  <si>
     <t xml:space="preserve">An adult male victim reported that he was approached by two male suspects who displayed guns and demanded cash. The victim complied and the suspects fled in a vehicle driven by a third suspect. No one was injured. </t>
   </si>
   <si>
+    <t xml:space="preserve">Unknown suspect(s) broke into a detached shed on the property and stole landscaping equipment. </t>
+  </si>
+  <si>
+    <t>tires</t>
+  </si>
+  <si>
+    <t>2019 red Dodge Challenger, tags MD/VE5997</t>
+  </si>
+  <si>
     <t>2011 black Toyota RAV4, tags MD/9CE6826</t>
+  </si>
+  <si>
+    <t>purse&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>laptop&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t>cash</t>
+  </si>
+  <si>
+    <t>three vehicles: catalytic converters</t>
+  </si>
+  <si>
+    <t>Gray Toyota Sienna, tags: MD/9CM9207</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unknown suspect(s) entered a garage, shed, and trailer on two properties and stole landscaping equipment and tools. </t>
+  </si>
+  <si>
+    <t>tags</t>
+  </si>
+  <si>
+    <t>Gray Honda Civic, tags MD/LTT992</t>
+  </si>
+  <si>
+    <t>Black Lexus ES350, tags MD/1EY2284</t>
+  </si>
+  <si>
+    <t>2021 gray Dodge Durango, tags MD/STC0348</t>
   </si>
 </sst>
 </file>
@@ -915,6 +1020,9 @@
       <c r="F4" t="s">
         <v>100</v>
       </c>
+      <c r="H4" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
@@ -932,6 +1040,9 @@
       <c r="E5" t="s">
         <v>47</v>
       </c>
+      <c r="H5" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
@@ -956,7 +1067,7 @@
         <v>132</v>
       </c>
       <c r="H6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -978,6 +1089,9 @@
       <c r="F7" t="s">
         <v>101</v>
       </c>
+      <c r="H7" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
@@ -998,6 +1112,9 @@
       <c r="F8" t="s">
         <v>99</v>
       </c>
+      <c r="H8" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
@@ -1018,6 +1135,9 @@
       <c r="F9" t="s">
         <v>100</v>
       </c>
+      <c r="H9" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
@@ -1038,6 +1158,9 @@
       <c r="F10" t="s">
         <v>102</v>
       </c>
+      <c r="H10" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
@@ -1058,6 +1181,9 @@
       <c r="F11" t="s">
         <v>102</v>
       </c>
+      <c r="H11" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
@@ -1078,6 +1204,9 @@
       <c r="F12" t="s">
         <v>103</v>
       </c>
+      <c r="H12" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
@@ -1098,6 +1227,9 @@
       <c r="F13" t="s">
         <v>104</v>
       </c>
+      <c r="H13" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
@@ -1118,6 +1250,9 @@
       <c r="F14" t="s">
         <v>105</v>
       </c>
+      <c r="H14" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
@@ -1138,6 +1273,9 @@
       <c r="F15" t="s">
         <v>105</v>
       </c>
+      <c r="H15" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
@@ -1162,7 +1300,7 @@
         <v>133</v>
       </c>
       <c r="H16" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1184,6 +1322,9 @@
       <c r="F17" t="s">
         <v>107</v>
       </c>
+      <c r="H17" t="s">
+        <v>155</v>
+      </c>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" t="s">
@@ -1204,6 +1345,9 @@
       <c r="F18" t="s">
         <v>108</v>
       </c>
+      <c r="H18" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" t="s">
@@ -1228,7 +1372,7 @@
         <v>134</v>
       </c>
       <c r="H19" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1253,6 +1397,9 @@
       <c r="G20" t="s">
         <v>135</v>
       </c>
+      <c r="H20" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" t="s">
@@ -1273,6 +1420,9 @@
       <c r="F21" t="s">
         <v>110</v>
       </c>
+      <c r="H21" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" t="s">
@@ -1293,6 +1443,9 @@
       <c r="F22" t="s">
         <v>111</v>
       </c>
+      <c r="H22" t="s">
+        <v>158</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" t="s">
@@ -1313,6 +1466,9 @@
       <c r="F23" t="s">
         <v>112</v>
       </c>
+      <c r="H23" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" t="s">
@@ -1333,6 +1489,9 @@
       <c r="F24" t="s">
         <v>110</v>
       </c>
+      <c r="H24" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" t="s">
@@ -1353,6 +1512,9 @@
       <c r="F25" t="s">
         <v>109</v>
       </c>
+      <c r="H25" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" t="s">
@@ -1373,6 +1535,9 @@
       <c r="F26" t="s">
         <v>113</v>
       </c>
+      <c r="H26" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" t="s">
@@ -1393,6 +1558,9 @@
       <c r="F27" t="s">
         <v>114</v>
       </c>
+      <c r="H27" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" t="s">
@@ -1413,6 +1581,9 @@
       <c r="F28" t="s">
         <v>114</v>
       </c>
+      <c r="H28" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" t="s">
@@ -1436,6 +1607,9 @@
       <c r="G29" t="s">
         <v>136</v>
       </c>
+      <c r="H29" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" t="s">
@@ -1456,6 +1630,9 @@
       <c r="F30" t="s">
         <v>110</v>
       </c>
+      <c r="H30" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" t="s">
@@ -1476,6 +1653,9 @@
       <c r="F31" t="s">
         <v>115</v>
       </c>
+      <c r="H31" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" t="s">
@@ -1496,6 +1676,9 @@
       <c r="F32" t="s">
         <v>115</v>
       </c>
+      <c r="H32" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" t="s">
@@ -1516,6 +1699,9 @@
       <c r="F33" t="s">
         <v>115</v>
       </c>
+      <c r="H33" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" t="s">
@@ -1536,6 +1722,9 @@
       <c r="F34" t="s">
         <v>116</v>
       </c>
+      <c r="H34" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" t="s">
@@ -1560,7 +1749,7 @@
         <v>137</v>
       </c>
       <c r="H35" t="s">
-        <v>145</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1582,6 +1771,9 @@
       <c r="F36" t="s">
         <v>118</v>
       </c>
+      <c r="H36" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37" t="s">
@@ -1602,6 +1794,9 @@
       <c r="F37" t="s">
         <v>119</v>
       </c>
+      <c r="H37" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" t="s">
@@ -1622,6 +1817,9 @@
       <c r="F38" t="s">
         <v>120</v>
       </c>
+      <c r="H38" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" t="s">
@@ -1642,6 +1840,9 @@
       <c r="F39" t="s">
         <v>121</v>
       </c>
+      <c r="H39" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" t="s">
@@ -1662,6 +1863,9 @@
       <c r="F40" t="s">
         <v>115</v>
       </c>
+      <c r="H40" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" t="s">
@@ -1682,6 +1886,9 @@
       <c r="F41" t="s">
         <v>119</v>
       </c>
+      <c r="H41" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" t="s">
@@ -1706,7 +1913,7 @@
         <v>138</v>
       </c>
       <c r="H42" t="s">
-        <v>146</v>
+        <v>171</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1728,6 +1935,9 @@
       <c r="F43" t="s">
         <v>122</v>
       </c>
+      <c r="H43" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" t="s">
@@ -1748,6 +1958,9 @@
       <c r="F44" t="s">
         <v>122</v>
       </c>
+      <c r="H44" t="s">
+        <v>173</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" t="s">
@@ -1768,6 +1981,9 @@
       <c r="F45" t="s">
         <v>123</v>
       </c>
+      <c r="H45" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" t="s">
@@ -1788,6 +2004,9 @@
       <c r="F46" t="s">
         <v>123</v>
       </c>
+      <c r="H46" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" t="s">
@@ -1808,6 +2027,9 @@
       <c r="F47" t="s">
         <v>123</v>
       </c>
+      <c r="H47" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" t="s">
@@ -1828,8 +2050,11 @@
       <c r="F48" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:7">
+      <c r="H48" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" t="s">
         <v>18</v>
       </c>
@@ -1848,8 +2073,11 @@
       <c r="F49" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="50" spans="1:7">
+      <c r="H49" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" t="s">
         <v>18</v>
       </c>
@@ -1868,8 +2096,11 @@
       <c r="F50" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="51" spans="1:7">
+      <c r="H50" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" t="s">
         <v>18</v>
       </c>
@@ -1888,8 +2119,11 @@
       <c r="F51" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="52" spans="1:7">
+      <c r="H51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" t="s">
         <v>18</v>
       </c>
@@ -1908,8 +2142,11 @@
       <c r="F52" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="53" spans="1:7">
+      <c r="H52" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" t="s">
         <v>18</v>
       </c>
@@ -1928,8 +2165,11 @@
       <c r="F53" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="54" spans="1:7">
+      <c r="H53" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1948,8 +2188,11 @@
       <c r="F54" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="55" spans="1:7">
+      <c r="H54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" t="s">
         <v>19</v>
       </c>
@@ -1971,8 +2214,11 @@
       <c r="G55" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="56" spans="1:7">
+      <c r="H55" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" t="s">
         <v>19</v>
       </c>
@@ -1991,8 +2237,11 @@
       <c r="F56" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="57" spans="1:7">
+      <c r="H56" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" t="s">
         <v>19</v>
       </c>
@@ -2010,6 +2259,9 @@
       </c>
       <c r="F57" t="s">
         <v>129</v>
+      </c>
+      <c r="H57" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
